--- a/Phase 2/Sprint3/Sprint backlog.xlsx
+++ b/Phase 2/Sprint3/Sprint backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\SE2223_59797_60441_60677_60816_60971\Phase 2\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D40DD0-CFCF-4752-A671-5447485060B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3E9425-DE90-4351-89B0-D6A6A901BA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F947D5B0-1B2A-0145-ADC6-725523378344}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>TO DO</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Estudar codigo</t>
+  </si>
+  <si>
+    <t>Discussão da divisão do trabalho</t>
   </si>
 </sst>
 </file>
@@ -715,12 +718,15 @@
   <dimension ref="A3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="18.125" style="1"/>
+    <col min="1" max="4" width="18.125" style="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="18.125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -745,17 +751,20 @@
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="5"/>
     </row>

--- a/Phase 2/Sprint3/Sprint backlog.xlsx
+++ b/Phase 2/Sprint3/Sprint backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\SE2223_59797_60441_60677_60816_60971\Phase 2\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3E9425-DE90-4351-89B0-D6A6A901BA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6141B5-D840-4198-AE25-8E947C19F24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F947D5B0-1B2A-0145-ADC6-725523378344}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>TO DO</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Discussão da divisão do trabalho</t>
+  </si>
+  <si>
+    <t>Implementação das funcionalidades</t>
   </si>
 </sst>
 </file>
@@ -103,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,48 +142,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,14 +172,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -317,16 +277,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2105025</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -340,59 +300,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8296275" y="590550"/>
-          <a:ext cx="1390650" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Conexão reta 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3F5506-28FE-3992-C835-E5E6B0C45E49}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8286750" y="609600"/>
-          <a:ext cx="1381125" cy="790575"/>
+          <a:off x="8658225" y="590550"/>
+          <a:ext cx="19050" cy="38100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -718,7 +628,7 @@
   <dimension ref="A3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -762,18 +672,19 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="9"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -782,7 +693,7 @@
       <c r="C7" s="8"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -802,9 +713,6 @@
       <c r="H12" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G4:G7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Phase 2/Sprint3/Sprint backlog.xlsx
+++ b/Phase 2/Sprint3/Sprint backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\SE2223_59797_60441_60677_60816_60971\Phase 2\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6141B5-D840-4198-AE25-8E947C19F24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EE7BAA-9663-4A39-B178-0C61AB849778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F947D5B0-1B2A-0145-ADC6-725523378344}"/>
   </bookViews>
@@ -628,7 +628,7 @@
   <dimension ref="A3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -672,16 +672,17 @@
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="9"/>

--- a/Phase 2/Sprint3/Sprint backlog.xlsx
+++ b/Phase 2/Sprint3/Sprint backlog.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\SE2223_59797_60441_60677_60816_60971\Phase 2\Sprint3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guima\OneDrive\Imagens\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EE7BAA-9663-4A39-B178-0C61AB849778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D74F5EC-4E4F-4FA4-9BEB-6E2C6334F141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F947D5B0-1B2A-0145-ADC6-725523378344}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F947D5B0-1B2A-0145-ADC6-725523378344}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TO DO</t>
   </si>
@@ -50,13 +50,16 @@
     <t>Reviewing</t>
   </si>
   <si>
-    <t>Estudar codigo</t>
-  </si>
-  <si>
-    <t>Discussão da divisão do trabalho</t>
-  </si>
-  <si>
     <t>Implementação das funcionalidades</t>
+  </si>
+  <si>
+    <t>Report a explicar as metricas</t>
+  </si>
+  <si>
+    <t>Testes unitarios</t>
+  </si>
+  <si>
+    <t>UseCases</t>
   </si>
 </sst>
 </file>
@@ -106,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,24 +132,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,9 +148,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -273,56 +260,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2105025</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Conexão reta 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3AD0203-972C-6923-64F4-2AC6018DF9A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8658225" y="590550"/>
-          <a:ext cx="19050" cy="38100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -628,89 +565,93 @@
   <dimension ref="A3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="18.125" style="1"/>
-    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="18.125" style="1"/>
+    <col min="1" max="4" width="18.09765625" style="1"/>
+    <col min="5" max="5" width="24.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.09765625" style="1"/>
+    <col min="8" max="8" width="31.19921875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="18.09765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="E3" s="7" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H12" s="3"/>
     </row>
   </sheetData>

--- a/Phase 2/Sprint3/Sprint backlog.xlsx
+++ b/Phase 2/Sprint3/Sprint backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guima\OneDrive\Imagens\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D74F5EC-4E4F-4FA4-9BEB-6E2C6334F141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C807B949-BE36-4432-8182-1AFCAD0CC47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F947D5B0-1B2A-0145-ADC6-725523378344}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>TO DO</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>UseCases</t>
+  </si>
+  <si>
+    <t>Video</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <dimension ref="A3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -639,10 +642,18 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G10" s="4"/>

--- a/Phase 2/Sprint3/Sprint backlog.xlsx
+++ b/Phase 2/Sprint3/Sprint backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guima\OneDrive\Imagens\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C807B949-BE36-4432-8182-1AFCAD0CC47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B50373-9F22-467A-BE2F-BD1D53AB8012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F947D5B0-1B2A-0145-ADC6-725523378344}"/>
   </bookViews>
@@ -59,10 +59,10 @@
     <t>Testes unitarios</t>
   </si>
   <si>
-    <t>UseCases</t>
-  </si>
-  <si>
     <t>Video</t>
+  </si>
+  <si>
+    <t>Use Cases</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -635,19 +635,19 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
